--- a/tổng hợp_cv_đợt 2.xlsx
+++ b/tổng hợp_cv_đợt 2.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$S$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$T$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$R$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$T$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="285">
   <si>
     <t>Họ Tên</t>
   </si>
@@ -113,9 +113,6 @@
     <t>PPBL</t>
   </si>
   <si>
-    <t xml:space="preserve"> Thái Bình </t>
-  </si>
-  <si>
     <t xml:space="preserve">0911.010.535 </t>
   </si>
   <si>
@@ -722,23 +719,173 @@
     <t>a. Linh</t>
   </si>
   <si>
-    <t>Ngày pv</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>lùi</t>
-  </si>
-  <si>
-    <t>LĐ Phòng</t>
+    <t>Nguyễn khắc oánh</t>
+  </si>
+  <si>
+    <t>Hoàng xuân cường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đỗ văn khiêm </t>
+  </si>
+  <si>
+    <t>Nguyễn thành  chung</t>
+  </si>
+  <si>
+    <t>Nguyễn thùy linh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn đức thịnh </t>
+  </si>
+  <si>
+    <t>Tạ quang dũng</t>
+  </si>
+  <si>
+    <t>Ngô đình chấn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le van tuan </t>
+  </si>
+  <si>
+    <t>Hà đức quyết</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng long </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm ngọc đức </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyên phạm </t>
+  </si>
+  <si>
+    <t>Vũ thu hiền</t>
+  </si>
+  <si>
+    <t>Nguyễn tiến toàn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần duy tuấn </t>
+  </si>
+  <si>
+    <t>Nguyễn thị thùy liên</t>
+  </si>
+  <si>
+    <t>Phòng pv</t>
+  </si>
+  <si>
+    <t>LĐ Khác</t>
+  </si>
+  <si>
+    <t>c Xuân</t>
+  </si>
+  <si>
+    <t>a Quốc Anh</t>
+  </si>
+  <si>
+    <t>a Quốc Anh, c Xuân</t>
+  </si>
+  <si>
+    <t>9:30</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Doãn hồng hiếu</t>
+  </si>
+  <si>
+    <t>8:00</t>
+  </si>
+  <si>
+    <t>8:20</t>
+  </si>
+  <si>
+    <t>8:40</t>
+  </si>
+  <si>
+    <t>a. Văn, a. Linh, a. Huyên</t>
+  </si>
+  <si>
+    <t>9:20</t>
+  </si>
+  <si>
+    <t>9:40</t>
+  </si>
+  <si>
+    <t>10:20</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>Đỗ Thanh Hường</t>
+  </si>
+  <si>
+    <t>dthuong162@gmail.com</t>
+  </si>
+  <si>
+    <t>Đại học Ngoại Thương Hà Nội</t>
+  </si>
+  <si>
+    <t>Ngân hàng TMCP Bảo Việt</t>
+  </si>
+  <si>
+    <t>30 triệu đồng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thái Bình </t>
+  </si>
+  <si>
+    <t>a. Tâm</t>
+  </si>
+  <si>
+    <t>a. Nam</t>
+  </si>
+  <si>
+    <t>a. Ngọc</t>
+  </si>
+  <si>
+    <t>a. Tâm, a. Nam, a. Ngọc</t>
+  </si>
+  <si>
+    <t>a. Hoàng</t>
+  </si>
+  <si>
+    <t>mail muộn - lùi</t>
+  </si>
+  <si>
+    <t>xin lùi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,8 +996,55 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF58595B"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,8 +1087,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -917,12 +1117,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1021,17 +1319,199 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="18" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1315,17 +1795,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="20" width="24" customWidth="1"/>
+    <col min="2" max="3" width="24" customWidth="1"/>
+    <col min="4" max="12" width="24" hidden="1" customWidth="1"/>
+    <col min="13" max="20" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,16 +1868,16 @@
         <v>8</v>
       </c>
       <c r="T1" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1414,27 +1895,27 @@
         <v>904307168</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="S2" s="10"/>
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1452,27 +1933,27 @@
         <v>912808420</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1490,31 +1971,31 @@
         <v>985138622</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="T4" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1532,27 +2013,27 @@
         <v>946622333</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P5" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="Q5" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="R5" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
     </row>
     <row r="6" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1570,27 +2051,27 @@
         <v>933921186</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -1605,30 +2086,30 @@
         <v>1986</v>
       </c>
       <c r="N7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="9" t="s">
+      <c r="Q7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="R7" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -1643,28 +2124,28 @@
         <v>1990</v>
       </c>
       <c r="N8" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>193</v>
-      </c>
       <c r="Q8" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
     </row>
-    <row r="9" spans="1:20" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -1679,32 +2160,32 @@
         <v>1985</v>
       </c>
       <c r="N9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" s="16" t="s">
+      <c r="Q9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -1722,31 +2203,31 @@
         <v>983198212</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="S10" s="3">
         <v>15000000</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1764,29 +2245,29 @@
         <v>363423806</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="R11" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="S11" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="T11" s="9"/>
     </row>
     <row r="12" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1804,29 +2285,29 @@
         <v>989920950</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="R12" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="S12" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="T12" s="9"/>
     </row>
     <row r="13" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1841,30 +2322,30 @@
         <v>1996</v>
       </c>
       <c r="N13" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="O13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="9" t="s">
+      <c r="Q13" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="R13" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="1:20" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1879,32 +2360,32 @@
         <v>1988</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="S14" s="10"/>
       <c r="T14" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1922,25 +2403,25 @@
         <v>868298894</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P15" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="S15" s="10"/>
       <c r="T15" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="10" t="s">
@@ -1959,28 +2440,28 @@
         <v>1992</v>
       </c>
       <c r="N16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="Q16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="R16" s="14" t="s">
+      <c r="S16" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="T16" s="9"/>
     </row>
     <row r="17" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="10" t="s">
@@ -1999,28 +2480,28 @@
         <v>1994</v>
       </c>
       <c r="N17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="P17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" s="9" t="s">
+      <c r="Q17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="R17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="S17" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="T17" s="9"/>
     </row>
     <row r="18" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="9" t="s">
@@ -2039,26 +2520,26 @@
         <v>1977</v>
       </c>
       <c r="N18" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="O18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="9" t="s">
+      <c r="Q18" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="R18" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>189</v>
       </c>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
     </row>
     <row r="19" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="10" t="s">
@@ -2077,26 +2558,26 @@
         <v>1988</v>
       </c>
       <c r="N19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="O19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" s="9" t="s">
+      <c r="Q19" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="R19" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="S19" s="10"/>
       <c r="T19" s="9"/>
     </row>
     <row r="20" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="10" t="s">
@@ -2136,11 +2617,11 @@
     </row>
     <row r="21" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -2158,29 +2639,29 @@
         <v>972803596</v>
       </c>
       <c r="O21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="Q21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="T21" s="9"/>
     </row>
-    <row r="22" spans="1:20" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -2198,29 +2679,29 @@
         <v>392216632</v>
       </c>
       <c r="O22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P22" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="P22" s="13" t="s">
+      <c r="Q22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="S22" s="10"/>
       <c r="T22" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -2238,27 +2719,27 @@
         <v>912640699</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="Q23" s="14" t="s">
+      <c r="R23" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="S23" s="10"/>
       <c r="T23" s="9"/>
     </row>
     <row r="24" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2276,13 +2757,13 @@
         <v>978827374</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="R24" s="7" t="s">
         <v>5</v>
@@ -2292,11 +2773,11 @@
     </row>
     <row r="25" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -2311,30 +2792,30 @@
         <v>1988</v>
       </c>
       <c r="N25" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q25" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="O25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q25" s="9" t="s">
+      <c r="R25" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>174</v>
       </c>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
     </row>
     <row r="26" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -2352,29 +2833,29 @@
         <v>981464678</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="T26" s="9"/>
     </row>
     <row r="27" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -2389,30 +2870,30 @@
         <v>1989</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="R27" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
     </row>
     <row r="28" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -2430,29 +2911,29 @@
         <v>384279440</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Q28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="T28" s="9"/>
     </row>
     <row r="29" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -2470,13 +2951,13 @@
         <v>966986495</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P29" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2488,11 +2969,11 @@
     </row>
     <row r="30" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -2507,30 +2988,30 @@
         <v>1997</v>
       </c>
       <c r="N30" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q30" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="O30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q30" s="9" t="s">
+      <c r="R30" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="R30" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
     </row>
     <row r="31" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -2545,16 +3026,16 @@
         <v>1989</v>
       </c>
       <c r="N31" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q31" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>202</v>
       </c>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
@@ -2562,11 +3043,11 @@
     </row>
     <row r="32" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -2581,30 +3062,30 @@
         <v>1991</v>
       </c>
       <c r="N32" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q32" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="O32" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q32" s="9" t="s">
+      <c r="R32" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="R32" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="S32" s="9"/>
       <c r="T32" s="9"/>
     </row>
     <row r="33" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -2619,30 +3100,30 @@
         <v>1992</v>
       </c>
       <c r="N33" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q33" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="O33" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q33" s="9" t="s">
+      <c r="R33" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="R33" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
     </row>
     <row r="34" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -2657,26 +3138,26 @@
         <v>1996</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q34" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="R34" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="R34" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
     </row>
-    <row r="35" spans="1:20" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="10" t="s">
@@ -2695,30 +3176,30 @@
         <v>1995</v>
       </c>
       <c r="N35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="P35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P35" s="6" t="s">
+      <c r="Q35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="R35" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="T35" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="9" t="s">
@@ -2740,25 +3221,25 @@
         <v>989994432</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q36" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="R36" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="S36" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="S36" s="6" t="s">
-        <v>162</v>
       </c>
       <c r="T36" s="9"/>
     </row>
     <row r="37" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="9" t="s">
@@ -2777,26 +3258,26 @@
         <v>1986</v>
       </c>
       <c r="N37" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q37" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="O37" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q37" s="9" t="s">
+      <c r="R37" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="R37" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
     </row>
     <row r="38" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="9" t="s">
@@ -2815,26 +3296,26 @@
         <v>1990</v>
       </c>
       <c r="N38" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="O38" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" s="9" t="s">
+      <c r="Q38" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="Q38" s="9" t="s">
+      <c r="R38" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="R38" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
     </row>
     <row r="39" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="10" t="s">
@@ -2856,25 +3337,25 @@
         <v>978261569</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q39" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="S39" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="T39" s="9"/>
     </row>
     <row r="40" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="10" t="s">
@@ -2893,26 +3374,26 @@
         <v>1995</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P40" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R40" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="S40" s="10"/>
       <c r="T40" s="9"/>
     </row>
     <row r="41" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="10" t="s">
@@ -2934,16 +3415,16 @@
         <v>359497273</v>
       </c>
       <c r="O41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P41" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="P41" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="Q41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R41" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>9</v>
@@ -2952,7 +3433,7 @@
     </row>
     <row r="42" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="9" t="s">
@@ -2977,24 +3458,50 @@
         <v>23</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R42" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="S42" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="S42" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="T42" s="9"/>
     </row>
+    <row r="43" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="87">
+        <v>1987</v>
+      </c>
+      <c r="N43" s="1">
+        <v>868160287</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q43" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:T42">
-    <filterColumn colId="19">
-      <filters blank="1"/>
-    </filterColumn>
+  <autoFilter ref="A1:T43">
     <sortState ref="A2:T43">
       <sortCondition descending="1" ref="C1:C43"/>
     </sortState>
@@ -3006,1530 +3513,1873 @@
     <hyperlink ref="P30" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" hidden="1" customWidth="1"/>
-    <col min="3" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="12" width="20.28515625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="15" width="20.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="19" width="29" customWidth="1"/>
+    <col min="2" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="14" width="20.28515625" customWidth="1"/>
+    <col min="15" max="18" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="96" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="96" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="K2" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="L2" s="96">
+        <v>1979</v>
+      </c>
+      <c r="M2" s="63">
+        <v>904307168</v>
+      </c>
+      <c r="N2" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" s="98"/>
+    </row>
+    <row r="3" spans="1:19" s="96" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="96" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="I3" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="K3" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="L3" s="96">
+        <v>1980</v>
+      </c>
+      <c r="M3" s="63">
+        <v>912808420</v>
+      </c>
+      <c r="N3" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="96" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="S3" s="98"/>
+    </row>
+    <row r="4" spans="1:19" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="74"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="75">
+        <v>1987</v>
+      </c>
+      <c r="M4" s="13">
+        <v>985138622</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="R4" s="75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="96" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="96" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="96" t="s">
+        <v>262</v>
+      </c>
+      <c r="K5" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="L5" s="96">
+        <v>1988</v>
+      </c>
+      <c r="M5" s="38">
+        <v>946622333</v>
+      </c>
+      <c r="N5" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q5" s="96" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="L6" s="44">
+        <v>1982</v>
+      </c>
+      <c r="M6" s="65">
+        <v>972803596</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7" s="46">
+        <v>1984</v>
+      </c>
+      <c r="M7" s="66">
+        <v>978827374</v>
+      </c>
+      <c r="N7" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="38"/>
+    </row>
+    <row r="8" spans="1:19" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="L8" s="47">
+        <v>1988</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="N8" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q8" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="R8" s="38"/>
+    </row>
+    <row r="9" spans="1:19" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="78"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="79">
+        <v>1989</v>
+      </c>
+      <c r="M9" s="13">
+        <v>981464678</v>
+      </c>
+      <c r="N9" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="R9" s="79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="F1" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="20" t="s">
+      <c r="B10" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="L10" s="44">
+        <v>1989</v>
+      </c>
+      <c r="M10" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="N10" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="P10" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q10" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="R10" s="38"/>
+    </row>
+    <row r="11" spans="1:19" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="L11" s="44">
+        <v>1994</v>
+      </c>
+      <c r="M11" s="65">
+        <v>384279440</v>
+      </c>
+      <c r="N11" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="L12" s="44">
+        <v>1995</v>
+      </c>
+      <c r="M12" s="65"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="46" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="46">
         <v>1</v>
       </c>
-      <c r="O1" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="30" t="s">
+      <c r="C13" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="99" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="90">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I13" s="99">
+        <v>1</v>
+      </c>
+      <c r="J13" s="90">
+        <v>0.4375</v>
+      </c>
+      <c r="K13" s="46">
         <v>4</v>
       </c>
-      <c r="S1" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="L13" s="46">
+        <v>1984</v>
+      </c>
+      <c r="M13" s="46">
+        <v>989994432</v>
+      </c>
+      <c r="N13" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="R13" s="46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="46" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="99" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="90">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="I14" s="99">
+        <v>1</v>
+      </c>
+      <c r="J14" s="90">
+        <v>0.4375</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="L14" s="46">
+        <v>1987</v>
+      </c>
+      <c r="M14" s="46">
+        <v>966986495</v>
+      </c>
+      <c r="N14" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="46" t="s">
+        <v>273</v>
+      </c>
+      <c r="P14" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q14" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="R14" s="46" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="45" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="H15" s="78"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="101">
+        <v>1984</v>
+      </c>
+      <c r="M15" s="44">
+        <v>912640699</v>
+      </c>
+      <c r="N15" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" s="78"/>
+    </row>
+    <row r="16" spans="1:19" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="80">
+        <v>1997</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q16" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="R16" s="73"/>
+    </row>
+    <row r="17" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="13">
+        <v>1986</v>
+      </c>
+      <c r="M17" s="13">
+        <v>933921186</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="R17" s="37"/>
+    </row>
+    <row r="18" spans="1:18" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="70"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="71">
+        <v>1986</v>
+      </c>
+      <c r="M18" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" s="69"/>
+    </row>
+    <row r="19" spans="1:18" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="I19" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="L19" s="48">
+        <v>1990</v>
+      </c>
+      <c r="M19" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="N19" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="P19" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+    </row>
+    <row r="20" spans="1:18" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="L20" s="50">
+        <v>1991</v>
+      </c>
+      <c r="M20" s="65">
+        <v>363423806</v>
+      </c>
+      <c r="N20" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P20" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q20" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="L21" s="50">
+        <v>1994</v>
+      </c>
+      <c r="M21" s="65">
+        <v>989920950</v>
+      </c>
+      <c r="N21" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="P21" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="R21" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="82"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="80">
+        <v>1996</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="N22" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="P22" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q22" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="R22" s="73"/>
+    </row>
+    <row r="23" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="42"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="13">
+        <v>1992</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="K24" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="L24" s="48">
+        <v>1977</v>
+      </c>
+      <c r="M24" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="N24" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="P24" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q24" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="R24" s="42"/>
+    </row>
+    <row r="25" spans="1:18" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="K25" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="L25" s="48">
+        <v>1988</v>
+      </c>
+      <c r="M25" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="N25" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q25" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="R25" s="42"/>
+    </row>
+    <row r="26" spans="1:18" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="I26" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="L26" s="50">
+        <v>1992</v>
+      </c>
+      <c r="M26" s="65">
+        <v>986005213</v>
+      </c>
+      <c r="N26" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="52">
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="84" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" s="86">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I27" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" s="84">
+        <v>5</v>
+      </c>
+      <c r="L27" s="84">
+        <v>1994</v>
+      </c>
+      <c r="M27" s="65"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="R27" s="84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="85" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="85">
+        <v>1</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="3">
-        <v>1979</v>
-      </c>
-      <c r="N2" s="6">
-        <v>904307168</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" s="10"/>
-    </row>
-    <row r="3" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="F28" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" s="99" t="s">
+        <v>231</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="I28" s="99">
+        <v>1</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="L28" s="85">
+        <v>1989</v>
+      </c>
+      <c r="M28" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="N28" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="P28" s="85" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="8">
-        <v>1980</v>
-      </c>
-      <c r="N3" s="6">
-        <v>912808420</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="S3" s="9"/>
-    </row>
-    <row r="4" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="37" t="s">
+      <c r="E29" s="34"/>
+      <c r="F29" s="85" t="s">
+        <v>282</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="I29" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="L29" s="53">
+        <v>1991</v>
+      </c>
+      <c r="M29" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="N29" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="P29" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q29" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="R29" s="34"/>
+    </row>
+    <row r="30" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="3">
-        <v>1987</v>
-      </c>
-      <c r="N4" s="6">
-        <v>985138622</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="37" t="s">
+      <c r="E30" s="83"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="80">
+        <v>1992</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="O30" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="P30" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q30" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="R30" s="73"/>
+    </row>
+    <row r="31" spans="1:18" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="8">
-        <v>1988</v>
-      </c>
-      <c r="N5" s="6">
-        <v>946622333</v>
-      </c>
-      <c r="O5" s="8" t="s">
+      <c r="E31" s="72"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="71">
+        <v>1996</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="N31" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="P31" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q31" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="R31" s="69"/>
+    </row>
+    <row r="32" spans="1:18" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="I32" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" s="53">
+        <v>1986</v>
+      </c>
+      <c r="M32" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="N32" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="P32" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q32" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="R32" s="34"/>
+    </row>
+    <row r="33" spans="1:18" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="L33" s="53">
+        <v>1990</v>
+      </c>
+      <c r="M33" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="N33" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="P33" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q33" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="R33" s="34"/>
+    </row>
+    <row r="34" spans="1:18" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G34" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="I34" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K34" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="L34" s="55">
+        <v>1994</v>
+      </c>
+      <c r="M34" s="65">
+        <v>978261569</v>
+      </c>
+      <c r="N34" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q34" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="R34" s="55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G35" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="I35" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="K35" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" s="55">
+        <v>1995</v>
+      </c>
+      <c r="M35" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="N35" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="O35" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q35" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="R35" s="34"/>
+    </row>
+    <row r="36" spans="1:18" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G36" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H36" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="I36" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" s="55">
+        <v>1996</v>
+      </c>
+      <c r="M36" s="65">
+        <v>359497273</v>
+      </c>
+      <c r="N36" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="O36" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="S5" s="9"/>
-    </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="37" t="s">
+      <c r="P36" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q36" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="R36" s="55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="3">
-        <v>1982</v>
-      </c>
-      <c r="N6" s="6">
-        <v>972803596</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="3">
-        <v>1984</v>
-      </c>
-      <c r="N7" s="6">
-        <v>912640699</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="S7" s="10"/>
-    </row>
-    <row r="8" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="7">
-        <v>1984</v>
-      </c>
-      <c r="N8" s="18">
-        <v>978827374</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="10"/>
-    </row>
-    <row r="9" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="28">
-        <v>1988</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="3">
-        <v>1989</v>
-      </c>
-      <c r="N10" s="6">
-        <v>981464678</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="6">
-        <v>1989</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="E37" s="34"/>
+      <c r="F37" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="I37" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="K37" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="L37" s="55">
+        <v>1997</v>
+      </c>
+      <c r="M37" s="65">
+        <v>354435225</v>
+      </c>
+      <c r="N37" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="P37" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q37" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="O11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="3">
-        <v>1994</v>
-      </c>
-      <c r="N12" s="6">
-        <v>384279440</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="3">
-        <v>1995</v>
-      </c>
-      <c r="N13" s="6">
-        <v>966986495</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="28">
-        <v>1997</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="3">
-        <v>1986</v>
-      </c>
-      <c r="N15" s="8">
-        <v>933921186</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="S15" s="10"/>
-    </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="27">
-        <v>1986</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="S16" s="10"/>
-    </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="28">
-        <v>1990</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="8">
-        <v>1991</v>
-      </c>
-      <c r="N18" s="6">
-        <v>363423806</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="8">
-        <v>1994</v>
-      </c>
-      <c r="N19" s="6">
-        <v>989920950</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="28">
-        <v>1996</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="3">
-        <v>1992</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R21" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="27">
-        <v>1994</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="28">
-        <v>1977</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="S23" s="9"/>
-    </row>
-    <row r="24" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="27">
-        <v>1988</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="S24" s="10"/>
-    </row>
-    <row r="25" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="3">
-        <v>1992</v>
-      </c>
-      <c r="N25" s="6">
-        <v>986005213</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S25" s="17">
-        <v>6400000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="28">
-        <v>1989</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q26" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-    </row>
-    <row r="27" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="28">
-        <v>1991</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q27" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="S27" s="9"/>
-    </row>
-    <row r="28" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="28">
-        <v>1992</v>
-      </c>
-      <c r="N28" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="O28" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="R28" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="S28" s="9"/>
-    </row>
-    <row r="29" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="28">
-        <v>1996</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="R29" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="S29" s="9"/>
-    </row>
-    <row r="30" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="8">
-        <v>1984</v>
-      </c>
-      <c r="N30" s="6">
-        <v>989994432</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="28">
-        <v>1986</v>
-      </c>
-      <c r="N31" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q31" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="R31" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="S31" s="9"/>
-    </row>
-    <row r="32" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="28">
-        <v>1990</v>
-      </c>
-      <c r="N32" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="R32" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="S32" s="9"/>
-    </row>
-    <row r="33" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="3">
-        <v>1994</v>
-      </c>
-      <c r="N33" s="6">
-        <v>978261569</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="3">
-        <v>1995</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="S34" s="10"/>
-    </row>
-    <row r="35" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="3">
-        <v>1996</v>
-      </c>
-      <c r="N35" s="6">
-        <v>359497273</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="8">
-        <v>1997</v>
-      </c>
-      <c r="N36" s="6">
-        <v>354435225</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="R36" s="6" t="s">
+      <c r="R37" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="S36" s="6" t="s">
-        <v>147</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S36">
+  <autoFilter ref="A1:R37">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:S37">
       <sortCondition descending="1" ref="D1:D37"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="P4" r:id="rId1"/>
-    <hyperlink ref="P14" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId1"/>
+    <hyperlink ref="O16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/tổng hợp_cv_đợt 2.xlsx
+++ b/tổng hợp_cv_đợt 2.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$R$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$R$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$T$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="286">
   <si>
     <t>Họ Tên</t>
   </si>
@@ -785,21 +785,6 @@
     <t>a Quốc Anh</t>
   </si>
   <si>
-    <t>a Quốc Anh, c Xuân</t>
-  </si>
-  <si>
-    <t>9:30</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>9:00</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -824,24 +809,6 @@
     <t>a. Văn, a. Linh, a. Huyên</t>
   </si>
   <si>
-    <t>9:20</t>
-  </si>
-  <si>
-    <t>9:40</t>
-  </si>
-  <si>
-    <t>10:20</t>
-  </si>
-  <si>
-    <t>10:40</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>11:20</t>
-  </si>
-  <si>
     <t>Đỗ Thanh Hường</t>
   </si>
   <si>
@@ -872,20 +839,56 @@
     <t>a. Tâm, a. Nam, a. Ngọc</t>
   </si>
   <si>
-    <t>a. Hoàng</t>
-  </si>
-  <si>
-    <t>mail muộn - lùi</t>
-  </si>
-  <si>
     <t>xin lùi</t>
+  </si>
+  <si>
+    <t>Xác nhận pv 2</t>
+  </si>
+  <si>
+    <t>a. Đông</t>
+  </si>
+  <si>
+    <t>bận</t>
+  </si>
+  <si>
+    <t>1 (muộn)</t>
+  </si>
+  <si>
+    <t>14:20</t>
+  </si>
+  <si>
+    <t>14:40</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>15:20</t>
+  </si>
+  <si>
+    <t>15:40</t>
+  </si>
+  <si>
+    <t>a. Ngọc,a Đông</t>
+  </si>
+  <si>
+    <t>a. Ngọc, a Đông</t>
+  </si>
+  <si>
+    <t>a. Linh, a. Huyên</t>
+  </si>
+  <si>
+    <t>c. Nga, a Tâm</t>
+  </si>
+  <si>
+    <t>14:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,13 +1016,6 @@
       <u/>
       <sz val="14"/>
       <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1220,7 +1216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1337,16 +1333,10 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1377,7 +1367,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1434,12 +1424,6 @@
     <xf numFmtId="49" fontId="8" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1470,7 +1454,7 @@
     <xf numFmtId="20" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1505,13 +1489,7 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1798,7 +1776,7 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="O23" sqref="O23:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,7 +2461,7 @@
         <v>29</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>30</v>
@@ -3472,13 +3450,13 @@
       <c r="T42" s="9"/>
     </row>
     <row r="43" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="87" t="s">
-        <v>272</v>
-      </c>
-      <c r="C43" s="88" t="s">
+      <c r="A43" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="M43" s="87">
+      <c r="M43" s="83">
         <v>1987</v>
       </c>
       <c r="N43" s="1">
@@ -3488,16 +3466,16 @@
         <v>42</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q43" s="89" t="s">
-        <v>274</v>
+        <v>262</v>
+      </c>
+      <c r="Q43" s="85" t="s">
+        <v>263</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3523,20 +3501,20 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="8" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
     <col min="12" max="14" width="20.28515625" customWidth="1"/>
     <col min="15" max="18" width="29" customWidth="1"/>
@@ -3546,7 +3524,7 @@
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="57" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="34" t="s">
@@ -3561,17 +3539,17 @@
       <c r="F1" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="J1" s="59" t="s">
         <v>18</v>
-      </c>
-      <c r="J1" s="35" t="s">
-        <v>17</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>249</v>
@@ -3579,10 +3557,10 @@
       <c r="L1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="55" t="s">
         <v>21</v>
       </c>
       <c r="O1" s="34" t="s">
@@ -3598,214 +3576,219 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="96" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:19" s="92" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="96" t="s">
+      <c r="B2" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="96" t="s">
-        <v>265</v>
-      </c>
-      <c r="E2" s="96" t="s">
+      <c r="D2" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="96" t="s">
-        <v>281</v>
-      </c>
-      <c r="G2" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H2" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J2" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="K2" s="96" t="s">
+      <c r="F2" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" s="62"/>
+      <c r="I2" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K2" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2" s="92">
+        <v>1979</v>
+      </c>
+      <c r="M2" s="61">
+        <v>904307168</v>
+      </c>
+      <c r="N2" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="92" t="s">
+        <v>72</v>
+      </c>
+      <c r="S2" s="94"/>
+    </row>
+    <row r="3" spans="1:19" s="92" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="92" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="L2" s="96">
-        <v>1979</v>
-      </c>
-      <c r="M2" s="63">
-        <v>904307168</v>
-      </c>
-      <c r="N2" s="97" t="s">
+      <c r="J3" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K3" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="L3" s="92">
+        <v>1980</v>
+      </c>
+      <c r="M3" s="61">
+        <v>912808420</v>
+      </c>
+      <c r="N3" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" s="98"/>
-    </row>
-    <row r="3" spans="1:19" s="96" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="96" t="s">
+      <c r="O3" s="92" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="S3" s="94"/>
+    </row>
+    <row r="4" spans="1:19" s="44" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="96" t="s">
-        <v>265</v>
-      </c>
-      <c r="E3" s="96" t="s">
+      <c r="D4" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" s="86">
+        <v>0.5625</v>
+      </c>
+      <c r="J4" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="K4" s="44">
+        <v>4</v>
+      </c>
+      <c r="L4" s="44">
+        <v>1987</v>
+      </c>
+      <c r="M4" s="44">
+        <v>985138622</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="R4" s="44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="92" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="92" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="92" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="96" t="s">
-        <v>281</v>
-      </c>
-      <c r="G3" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H3" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J3" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="K3" s="96" t="s">
-        <v>258</v>
-      </c>
-      <c r="L3" s="96">
-        <v>1980</v>
-      </c>
-      <c r="M3" s="63">
-        <v>912808420</v>
-      </c>
-      <c r="N3" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="P3" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q3" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="S3" s="98"/>
-    </row>
-    <row r="4" spans="1:19" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="75">
-        <v>1987</v>
-      </c>
-      <c r="M4" s="13">
-        <v>985138622</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="P4" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q4" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="R4" s="75" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="96" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>265</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" s="96" t="s">
-        <v>281</v>
+      <c r="F5" s="92" t="s">
+        <v>270</v>
       </c>
       <c r="G5" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="H5" s="96" t="s">
-        <v>264</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="J5" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="K5" s="96" t="s">
-        <v>258</v>
-      </c>
-      <c r="L5" s="96">
+      <c r="H5" s="36"/>
+      <c r="I5" s="92" t="s">
+        <v>259</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="92" t="s">
+        <v>253</v>
+      </c>
+      <c r="L5" s="92">
         <v>1988</v>
       </c>
       <c r="M5" s="38">
         <v>946622333</v>
       </c>
-      <c r="N5" s="96" t="s">
+      <c r="N5" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="96" t="s">
+      <c r="O5" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="P5" s="96" t="s">
+      <c r="P5" s="92" t="s">
         <v>210</v>
       </c>
-      <c r="Q5" s="96" t="s">
+      <c r="Q5" s="92" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:19" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="62" t="s">
         <v>231</v>
       </c>
       <c r="C6" s="38" t="s">
@@ -3814,54 +3797,52 @@
       <c r="D6" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K6" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="G6" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="L6" s="44">
+      <c r="L6" s="42">
         <v>1982</v>
       </c>
-      <c r="M6" s="65">
+      <c r="M6" s="63">
         <v>972803596</v>
       </c>
       <c r="N6" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="Q6" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="44" t="s">
+      <c r="R6" s="42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:19" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="62" t="s">
         <v>231</v>
       </c>
       <c r="C7" s="38" t="s">
@@ -3870,52 +3851,50 @@
       <c r="D7" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K7" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="I7" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="L7" s="46">
+      <c r="L7" s="44">
         <v>1984</v>
       </c>
-      <c r="M7" s="66">
+      <c r="M7" s="64">
         <v>978827374</v>
       </c>
-      <c r="N7" s="91" t="s">
+      <c r="N7" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="46" t="s">
+      <c r="O7" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="P7" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="46" t="s">
+      <c r="Q7" s="44" t="s">
         <v>5</v>
       </c>
       <c r="R7" s="38"/>
     </row>
-    <row r="8" spans="1:19" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="64" t="s">
+    <row r="8" spans="1:19" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="62" t="s">
         <v>231</v>
       </c>
       <c r="C8" s="38" t="s">
@@ -3924,66 +3903,70 @@
       <c r="D8" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K8" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="I8" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" s="47">
-        <v>1988</v>
-      </c>
-      <c r="M8" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="N8" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="P8" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q8" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="R8" s="38"/>
+      <c r="L8" s="42">
+        <v>1994</v>
+      </c>
+      <c r="M8" s="63">
+        <v>384279440</v>
+      </c>
+      <c r="N8" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" s="42" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="66" t="s">
         <v>123</v>
       </c>
       <c r="B9" s="36"/>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="77"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="38" t="s">
+        <v>269</v>
+      </c>
       <c r="G9" s="37"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="79">
+      <c r="H9" s="37"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="K9" s="73"/>
+      <c r="L9" s="75">
         <v>1989</v>
       </c>
       <c r="M9" s="13">
@@ -3992,24 +3975,24 @@
       <c r="N9" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="O9" s="79" t="s">
+      <c r="O9" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="79" t="s">
+      <c r="P9" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" s="79" t="s">
+      <c r="Q9" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="R9" s="79" t="s">
+      <c r="R9" s="75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:19" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="62" t="s">
         <v>231</v>
       </c>
       <c r="C10" s="38" t="s">
@@ -4018,108 +4001,97 @@
       <c r="D10" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="I10" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="L10" s="44">
+      <c r="L10" s="42">
         <v>1989</v>
       </c>
-      <c r="M10" s="65" t="s">
+      <c r="M10" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="N10" s="58" t="s">
+      <c r="N10" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="O10" s="44" t="s">
+      <c r="O10" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="P10" s="44" t="s">
+      <c r="P10" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="Q10" s="44" t="s">
+      <c r="Q10" s="42" t="s">
         <v>142</v>
       </c>
       <c r="R10" s="38"/>
     </row>
-    <row r="11" spans="1:19" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="C11" s="38" t="s">
+    <row r="11" spans="1:19" s="44" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="38" t="s">
-        <v>253</v>
-      </c>
       <c r="F11" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="I11" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J11" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="K11" s="38" t="s">
-        <v>258</v>
+        <v>282</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" s="86">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="K11" s="44">
+        <v>4</v>
       </c>
       <c r="L11" s="44">
-        <v>1994</v>
-      </c>
-      <c r="M11" s="65">
-        <v>384279440</v>
-      </c>
-      <c r="N11" s="92" t="s">
+        <v>1984</v>
+      </c>
+      <c r="M11" s="44">
+        <v>912640699</v>
+      </c>
+      <c r="N11" s="44" t="s">
         <v>42</v>
       </c>
       <c r="O11" s="44" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="P11" s="44" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="R11" s="44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="45" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="43" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="62" t="s">
         <v>231</v>
       </c>
       <c r="C12" s="38" t="s">
@@ -4128,929 +4100,957 @@
       <c r="D12" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="J12" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="F12" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" s="38" t="s">
+      <c r="L12" s="45">
+        <v>1988</v>
+      </c>
+      <c r="M12" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="P12" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q12" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="R12" s="38"/>
+    </row>
+    <row r="13" spans="1:19" s="43" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="I12" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="L12" s="44">
+      <c r="G13" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="L13" s="42">
         <v>1995</v>
       </c>
-      <c r="M12" s="65"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="44" t="s">
+      <c r="M13" s="63"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="P12" s="44" t="s">
+      <c r="P13" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="Q12" s="44" t="s">
+      <c r="Q13" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="R12" s="44" t="s">
+      <c r="R13" s="42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="46" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+    <row r="14" spans="1:19" s="44" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B14" s="44">
         <v>1</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D14" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="G13" s="99" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" s="90">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="I13" s="99">
+      <c r="E14" s="38"/>
+      <c r="F14" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="H14" s="95"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="95">
         <v>1</v>
       </c>
-      <c r="J13" s="90">
-        <v>0.4375</v>
-      </c>
-      <c r="K13" s="46">
+      <c r="K14" s="44">
         <v>4</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L14" s="44">
         <v>1984</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M14" s="44">
         <v>989994432</v>
       </c>
-      <c r="N13" s="46" t="s">
+      <c r="N14" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="O13" s="46" t="s">
+      <c r="O14" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="P13" s="46" t="s">
+      <c r="P14" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="Q13" s="46" t="s">
+      <c r="Q14" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="R13" s="46" t="s">
+      <c r="R14" s="44" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="46" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="46" t="s">
+    <row r="15" spans="1:19" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="F14" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="G14" s="99" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" s="90">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="I14" s="99">
-        <v>1</v>
-      </c>
-      <c r="J14" s="90">
-        <v>0.4375</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="L14" s="46">
-        <v>1987</v>
-      </c>
-      <c r="M14" s="46">
-        <v>966986495</v>
-      </c>
-      <c r="N14" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="P14" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q14" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="R14" s="46" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="45" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="36" t="s">
-        <v>283</v>
-      </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="101">
-        <v>1984</v>
-      </c>
-      <c r="M15" s="44">
-        <v>912640699</v>
-      </c>
-      <c r="N15" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="P15" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q15" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="R15" s="78"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K15" s="71"/>
+      <c r="L15" s="76">
+        <v>1997</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="P15" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q15" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="R15" s="71"/>
     </row>
     <row r="16" spans="1:19" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>236</v>
+      <c r="A16" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="73"/>
+      <c r="C16" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41" t="s">
+        <v>267</v>
+      </c>
       <c r="G16" s="37"/>
-      <c r="H16" s="73"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="37"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="80">
-        <v>1997</v>
-      </c>
-      <c r="M16" s="37" t="s">
-        <v>163</v>
+      <c r="J16" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K16" s="37"/>
+      <c r="L16" s="13">
+        <v>1986</v>
+      </c>
+      <c r="M16" s="13">
+        <v>933921186</v>
       </c>
       <c r="N16" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="O16" s="81" t="s">
-        <v>220</v>
-      </c>
-      <c r="P16" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q16" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="R16" s="73"/>
-    </row>
-    <row r="17" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
-        <v>136</v>
+      <c r="O16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16" s="37"/>
+    </row>
+    <row r="17" spans="1:18" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="66" t="s">
+        <v>135</v>
       </c>
       <c r="B17" s="36"/>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="37"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="41" t="s">
+        <v>267</v>
+      </c>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="13">
+      <c r="I17" s="67"/>
+      <c r="J17" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K17" s="67"/>
+      <c r="L17" s="69">
         <v>1986</v>
       </c>
-      <c r="M17" s="13">
-        <v>933921186</v>
-      </c>
-      <c r="N17" s="37" t="s">
+      <c r="M17" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="R17" s="37"/>
-    </row>
-    <row r="18" spans="1:18" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="69" t="s">
+      <c r="O17" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="R17" s="67"/>
+    </row>
+    <row r="18" spans="1:18" s="47" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="71">
-        <v>1986</v>
-      </c>
-      <c r="M18" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" s="13" t="s">
+      <c r="E18" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L18" s="46">
+        <v>1990</v>
+      </c>
+      <c r="M18" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="N18" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="O18" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="P18" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q18" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" s="69"/>
-    </row>
-    <row r="19" spans="1:18" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="42" t="s">
+      <c r="O18" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="P18" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+    </row>
+    <row r="19" spans="1:18" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I19" s="82">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J19" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L19" s="48">
+        <v>1991</v>
+      </c>
+      <c r="M19" s="63">
+        <v>363423806</v>
+      </c>
+      <c r="N19" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q19" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="R19" s="48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="J20" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L20" s="48">
+        <v>1994</v>
+      </c>
+      <c r="M20" s="63">
+        <v>989920950</v>
+      </c>
+      <c r="N20" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="P20" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="R20" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" s="78"/>
+      <c r="F21" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="I21" s="78"/>
+      <c r="J21" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K21" s="71"/>
+      <c r="L21" s="76">
+        <v>1996</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="P21" s="71" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q21" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="R21" s="71"/>
+    </row>
+    <row r="22" spans="1:18" s="80" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="J22" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="K22" s="80">
+        <v>5</v>
+      </c>
+      <c r="L22" s="80">
+        <v>1992</v>
+      </c>
+      <c r="M22" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="O22" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q22" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="R22" s="80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I23" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="G19" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="I19" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="L19" s="48">
-        <v>1990</v>
-      </c>
-      <c r="M19" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="N19" s="93" t="s">
+      <c r="J23" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L23" s="46">
+        <v>1977</v>
+      </c>
+      <c r="M23" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="N23" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="O19" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="P19" s="42" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-    </row>
-    <row r="20" spans="1:18" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
-        <v>238</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="42" t="s">
+      <c r="O23" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="P23" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q23" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="R23" s="41"/>
+    </row>
+    <row r="24" spans="1:18" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="G20" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="I20" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="L20" s="50">
+      <c r="E24" s="41"/>
+      <c r="F24" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="J24" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L24" s="46">
+        <v>1988</v>
+      </c>
+      <c r="M24" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="N24" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q24" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="41"/>
+    </row>
+    <row r="25" spans="1:18" s="47" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I25" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="J25" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="L25" s="48">
+        <v>1992</v>
+      </c>
+      <c r="M25" s="63">
+        <v>986005213</v>
+      </c>
+      <c r="N25" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" s="50">
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="47" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" s="36"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" s="80">
+        <v>5</v>
+      </c>
+      <c r="L26" s="80">
+        <v>1994</v>
+      </c>
+      <c r="M26" s="63"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" s="80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="81" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" s="81">
+        <v>1</v>
+      </c>
+      <c r="C27" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>273</v>
+      </c>
+      <c r="G27" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="H27" s="95"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="95">
+        <v>1</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="L27" s="81">
+        <v>1989</v>
+      </c>
+      <c r="M27" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="N27" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="P27" s="81" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="52" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="81" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="81" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H28" s="36"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" s="51">
         <v>1991</v>
       </c>
-      <c r="M20" s="65">
-        <v>363423806</v>
-      </c>
-      <c r="N20" s="93" t="s">
+      <c r="M28" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="N28" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="O20" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="P20" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q20" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="R20" s="50" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="84" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="G21" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="I21" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="L21" s="50">
-        <v>1994</v>
-      </c>
-      <c r="M21" s="65">
-        <v>989920950</v>
-      </c>
-      <c r="N21" s="93" t="s">
+      <c r="O28" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="P28" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q28" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="R28" s="34"/>
+    </row>
+    <row r="29" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="36"/>
+      <c r="C29" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" s="79"/>
+      <c r="F29" s="81" t="s">
+        <v>273</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" s="71"/>
+      <c r="L29" s="76">
+        <v>1992</v>
+      </c>
+      <c r="M29" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="N29" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="O21" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="P21" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q21" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="R21" s="42" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>230</v>
-      </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="80">
+      <c r="O29" s="71" t="s">
+        <v>225</v>
+      </c>
+      <c r="P29" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q29" s="71" t="s">
+        <v>183</v>
+      </c>
+      <c r="R29" s="71"/>
+    </row>
+    <row r="30" spans="1:18" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="66" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" s="70"/>
+      <c r="F30" s="81" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K30" s="67"/>
+      <c r="L30" s="69">
         <v>1996</v>
       </c>
-      <c r="M22" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="N22" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="O22" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="P22" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q22" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="R22" s="73"/>
-    </row>
-    <row r="23" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="13">
-        <v>1992</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q23" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="84" t="s">
-        <v>261</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="G24" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="I24" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="K24" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="L24" s="48">
-        <v>1977</v>
-      </c>
-      <c r="M24" s="67" t="s">
-        <v>185</v>
-      </c>
-      <c r="N24" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="O24" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="P24" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q24" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="R24" s="42"/>
-    </row>
-    <row r="25" spans="1:18" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="I25" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="K25" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="L25" s="48">
-        <v>1988</v>
-      </c>
-      <c r="M25" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="N25" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="O25" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="P25" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q25" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="R25" s="42"/>
-    </row>
-    <row r="26" spans="1:18" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="G26" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="I26" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J26" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="L26" s="50">
-        <v>1992</v>
-      </c>
-      <c r="M26" s="65">
-        <v>986005213</v>
-      </c>
-      <c r="N26" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q26" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="R26" s="52">
-        <v>6400000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="84" t="s">
-        <v>230</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="G27" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H27" s="86">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="I27" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J27" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="K27" s="84">
-        <v>5</v>
-      </c>
-      <c r="L27" s="84">
-        <v>1994</v>
-      </c>
-      <c r="M27" s="65"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="P27" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="R27" s="84" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="85" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="85" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="85">
-        <v>1</v>
-      </c>
-      <c r="C28" s="85" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="85" t="s">
-        <v>229</v>
-      </c>
-      <c r="F28" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="G28" s="99" t="s">
-        <v>231</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="I28" s="99">
-        <v>1</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="L28" s="85">
-        <v>1989</v>
-      </c>
-      <c r="M28" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="N28" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="O28" s="85" t="s">
-        <v>199</v>
-      </c>
-      <c r="P28" s="85" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="85" t="s">
-        <v>242</v>
-      </c>
-      <c r="B29" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="G29" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H29" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="I29" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J29" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="L29" s="53">
-        <v>1991</v>
-      </c>
-      <c r="M29" s="67" t="s">
-        <v>195</v>
-      </c>
-      <c r="N29" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="O29" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="P29" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q29" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="R29" s="34"/>
-    </row>
-    <row r="30" spans="1:18" ht="24.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="83" t="s">
-        <v>229</v>
-      </c>
-      <c r="E30" s="83"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="80">
-        <v>1992</v>
-      </c>
       <c r="M30" s="37" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N30" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="O30" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="P30" s="73" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q30" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="R30" s="73"/>
-    </row>
-    <row r="31" spans="1:18" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="72" t="s">
+      <c r="O30" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="P30" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q30" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="R30" s="67"/>
+    </row>
+    <row r="31" spans="1:18" s="52" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="71">
-        <v>1996</v>
-      </c>
-      <c r="M31" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="N31" s="37" t="s">
+      <c r="E31" s="34"/>
+      <c r="F31" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I31" s="96">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J31" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="L31" s="51">
+        <v>1986</v>
+      </c>
+      <c r="M31" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="N31" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="69" t="s">
-        <v>175</v>
-      </c>
-      <c r="P31" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q31" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="R31" s="69"/>
-    </row>
-    <row r="32" spans="1:18" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="B32" s="64" t="s">
+      <c r="O31" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="P31" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q31" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="R31" s="34"/>
+    </row>
+    <row r="32" spans="1:18" s="52" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="81" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="62" t="s">
         <v>231</v>
       </c>
       <c r="C32" s="34" t="s">
@@ -5061,48 +5061,48 @@
       </c>
       <c r="E32" s="34"/>
       <c r="F32" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="G32" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="I32" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>254</v>
+        <v>284</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" s="62" t="s">
+        <v>231</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="L32" s="53">
-        <v>1986</v>
-      </c>
-      <c r="M32" s="67" t="s">
-        <v>167</v>
-      </c>
-      <c r="N32" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" s="51">
+        <v>1990</v>
+      </c>
+      <c r="M32" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="N32" s="55" t="s">
         <v>52</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="P32" s="34" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="34" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="R32" s="34"/>
     </row>
-    <row r="33" spans="1:18" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="B33" s="64" t="s">
+    <row r="33" spans="1:18" s="52" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="62" t="s">
         <v>231</v>
       </c>
       <c r="C33" s="34" t="s">
@@ -5113,48 +5113,46 @@
       </c>
       <c r="E33" s="34"/>
       <c r="F33" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="G33" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H33" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="I33" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J33" s="34" t="s">
-        <v>254</v>
+        <v>267</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" s="36"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="62" t="s">
+        <v>231</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L33" s="53">
-        <v>1990</v>
-      </c>
-      <c r="M33" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="N33" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="O33" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="P33" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q33" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="R33" s="34"/>
-    </row>
-    <row r="34" spans="1:18" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="64" t="s">
+        <v>1994</v>
+      </c>
+      <c r="M33" s="63">
+        <v>978261569</v>
+      </c>
+      <c r="N33" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="O33" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="P33" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q33" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="R33" s="53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="52" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="62" t="s">
         <v>231</v>
       </c>
       <c r="C34" s="34" t="s">
@@ -5165,50 +5163,48 @@
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="G34" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H34" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="I34" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J34" s="34" t="s">
-        <v>257</v>
+        <v>284</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="J34" s="62" t="s">
+        <v>231</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="L34" s="55">
-        <v>1994</v>
-      </c>
-      <c r="M34" s="65">
-        <v>978261569</v>
-      </c>
-      <c r="N34" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="L34" s="53">
+        <v>1995</v>
+      </c>
+      <c r="M34" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="N34" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="O34" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="P34" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q34" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="R34" s="55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="85" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="64" t="s">
+      <c r="O34" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="P34" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q34" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="R34" s="34"/>
+    </row>
+    <row r="35" spans="1:18" s="52" customFormat="1" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="62" t="s">
         <v>231</v>
       </c>
       <c r="C35" s="34" t="s">
@@ -5219,48 +5215,46 @@
       </c>
       <c r="E35" s="34"/>
       <c r="F35" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="G35" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H35" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="I35" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>257</v>
+        <v>267</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H35" s="36"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="62" t="s">
+        <v>231</v>
       </c>
       <c r="K35" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="L35" s="55">
-        <v>1995</v>
-      </c>
-      <c r="M35" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="N35" s="95" t="s">
-        <v>42</v>
-      </c>
-      <c r="O35" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="P35" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q35" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="R35" s="34"/>
-    </row>
-    <row r="36" spans="1:18" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="L35" s="53">
+        <v>1996</v>
+      </c>
+      <c r="M35" s="63">
+        <v>359497273</v>
+      </c>
+      <c r="N35" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="O35" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q35" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="R35" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="52" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="B36" s="62" t="s">
         <v>231</v>
       </c>
       <c r="C36" s="34" t="s">
@@ -5271,102 +5265,98 @@
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="I36" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="G36" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H36" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="I36" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J36" s="34" t="s">
+      <c r="J36" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="K36" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="L36" s="55">
-        <v>1996</v>
-      </c>
-      <c r="M36" s="65">
-        <v>359497273</v>
-      </c>
-      <c r="N36" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="O36" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="P36" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q36" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="R36" s="55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="54" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="85" t="s">
-        <v>248</v>
-      </c>
-      <c r="B37" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="C37" s="34" t="s">
+      <c r="L36" s="53">
+        <v>1997</v>
+      </c>
+      <c r="M36" s="63">
+        <v>354435225</v>
+      </c>
+      <c r="N36" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="O36" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="P36" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q36" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="R36" s="53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="81" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="81" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="81" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="E37" s="34"/>
       <c r="F37" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="G37" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="I37" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="K37" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="L37" s="55">
-        <v>1997</v>
-      </c>
-      <c r="M37" s="65">
-        <v>354435225</v>
-      </c>
-      <c r="N37" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="O37" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="P37" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q37" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="R37" s="55" t="s">
-        <v>146</v>
+        <v>284</v>
+      </c>
+      <c r="G37" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" s="95">
+        <v>1</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="J37" s="95">
+        <v>1</v>
+      </c>
+      <c r="K37" s="81">
+        <v>6</v>
+      </c>
+      <c r="L37" s="81">
+        <v>1987</v>
+      </c>
+      <c r="M37" s="81">
+        <v>966986495</v>
+      </c>
+      <c r="N37" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="O37" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="P37" s="81" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q37" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="R37" s="81" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R37">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:R36">
+    <filterColumn colId="7">
       <filters>
         <filter val="1"/>
       </filters>
@@ -5377,7 +5367,7 @@
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="O4" r:id="rId1"/>
-    <hyperlink ref="O16" r:id="rId2"/>
+    <hyperlink ref="O15" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/tổng hợp_cv_đợt 2.xlsx
+++ b/tổng hợp_cv_đợt 2.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$R$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$R$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$T$43</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -3501,7 +3501,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3512,7 +3512,8 @@
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" customWidth="1"/>
-    <col min="7" max="8" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
@@ -4056,13 +4057,13 @@
       <c r="G11" s="44" t="s">
         <v>231</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="95" t="s">
         <v>231</v>
       </c>
       <c r="I11" s="86">
         <v>0.63888888888888895</v>
       </c>
-      <c r="J11" s="44" t="s">
+      <c r="J11" s="95" t="s">
         <v>231</v>
       </c>
       <c r="K11" s="44">
@@ -5355,7 +5356,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R36">
+  <autoFilter ref="A1:R37">
     <filterColumn colId="7">
       <filters>
         <filter val="1"/>
